--- a/CITracker/wwwroot/templates/location.xlsx
+++ b/CITracker/wwwroot/templates/location.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eruog\OneDrive\Documents\Project Files\CITracker\App\CITracker\CITracker\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7E5853-E9D3-43E4-9F51-8544772860D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C416DFC-9D1A-4A80-94A3-042052F56A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{9F7EF888-3D47-4E63-80A9-8FC1120973C5}"/>
+    <workbookView xWindow="2925" yWindow="1830" windowWidth="22950" windowHeight="11295" xr2:uid="{9F7EF888-3D47-4E63-80A9-8FC1120973C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Country</t>
   </si>
@@ -47,28 +47,10 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Nigeria</t>
+    <t>Name of Facility within Country</t>
   </si>
   <si>
-    <t>Ijebu-Ode Plant</t>
-  </si>
-  <si>
-    <t>Procurement</t>
-  </si>
-  <si>
-    <t>Kano Warehouse</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Paris Central Storage</t>
-  </si>
-  <si>
-    <t>Admin</t>
+    <t>Name of department within Facility</t>
   </si>
 </sst>
 </file>
@@ -431,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53454CCB-0013-435F-9B79-AC4C0E7C1FC6}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,43 +437,20 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="j.laye@opsfocus.com" xr:uid="{263C1C8B-342A-41E4-BEAA-969270500366}"/>
-    <hyperlink ref="B3" r:id="rId2" display="s.jay@opsfocus.com" xr:uid="{EE483F19-B35E-4B13-8A54-817855EB42E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>